--- a/uploadStudents.xlsx
+++ b/uploadStudents.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">subjectCode</t>
   </si>
   <si>
     <t xml:space="preserve">studentCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_join_exam</t>
   </si>
   <si>
     <t xml:space="preserve">INT2203 4</t>
@@ -153,7 +156,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -169,13 +172,19 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>16020055</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -183,6 +192,9 @@
       <c r="A3" s="2"/>
       <c r="B3" s="0" t="n">
         <v>16020033</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/uploadStudents.xlsx
+++ b/uploadStudents.xlsx
@@ -156,7 +156,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
